--- a/biology/Zoologie/Acosmeryx_anceus/Acosmeryx_anceus.xlsx
+++ b/biology/Zoologie/Acosmeryx_anceus/Acosmeryx_anceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acosmeryx anceus est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Acosmeryx. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 70 à 88 mm.
 			Face dorsale de la femelle
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L'espèce est connue en Inde, en Nouvelle-Guinée, et le Queensland en Australie.
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les plantes des genres Leea , Cayratia , Cissus , et Vitispour la sous-espèce subdentata ; et cayratia clematidea, Cissus antarctica et Vitis viniferaanceus  pour la sous-espèce anceus.
 </t>
@@ -607,16 +625,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Acosmeryx anceus a été décrite par l’entomologiste Caspar Stoll, en 1781, sous le nom initial de Sphinx anceus[1].
-Synonymie
-Sphinx anceus Stoll, [1781] Protonyme
-Zonilia mixtura Walker, [1865]
-Enyo cinnamomea Herrich-Schäffer, [1869]
-Acosmeryx daulis Boisduval, [1875]
-Taxonomie
-Acosmeryx anceus anceus (Queensland et de la Nouvelle-Galles du Sud)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Acosmeryx anceus a été décrite par l’entomologiste Caspar Stoll, en 1781, sous le nom initial de Sphinx anceus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acosmeryx_anceus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmeryx_anceus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sphinx anceus Stoll,  Protonyme
+Zonilia mixtura Walker, 
+Enyo cinnamomea Herrich-Schäffer, 
+Acosmeryx daulis Boisduval, </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acosmeryx_anceus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acosmeryx_anceus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acosmeryx anceus anceus (Queensland et de la Nouvelle-Galles du Sud)
 Acosmeryx anceus subdentata Rothschild &amp; Jordan 1903 (sud et est de l'Inde, le Népal, le Bhoutan, la Thaïlande, le sud-ouest de la Chine (Yunnan, Guangxi), le Vietnam, la Malaisie, l'Indonésie (Sumatra, Java, Kalimantan, Sumbawa) et les Philippines)
 			Acosmeryx anceus subdentata Face dorsale du mâle
 			Acosmeryx anceus subdentata  △ revers du mâle
